--- a/SourceCode/2024/Feb 2024/Sirisha/Task6/Task15/ExcelData.xlsx
+++ b/SourceCode/2024/Feb 2024/Sirisha/Task6/Task15/ExcelData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4bd40ed4abe2f4b/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Sirisha/Task6/Task15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10486F59194F3C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE29A76-36D8-468D-B6D0-417ED946E11D}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC10486F59194F3C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0447EB3-B065-4D8A-BC56-FD9CEE49611C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,88 +36,88 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>FullName</t>
+  </si>
+  <si>
     <t>Sai</t>
   </si>
   <si>
+    <t>Moksha</t>
+  </si>
+  <si>
+    <t>Sai Moksha 1</t>
+  </si>
+  <si>
     <t>Sai ram</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Sai ram A 2</t>
+  </si>
+  <si>
     <t>Sirisha</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Sirisha D 3</t>
+  </si>
+  <si>
     <t>anusha</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>anusha V 4</t>
+  </si>
+  <si>
     <t>Ritesh</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ritesh K 5</t>
+  </si>
+  <si>
     <t>Mahender</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Mahender O 6</t>
+  </si>
+  <si>
     <t>Arvind Rawat</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Arvind Rawat L 7</t>
+  </si>
+  <si>
     <t>Sravani</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Sravani U 8</t>
+  </si>
+  <si>
     <t>Syed Farhan</t>
   </si>
   <si>
-    <t>Moksha</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Sai Moksha 1</t>
-  </si>
-  <si>
-    <t>Sai ram A 2</t>
-  </si>
-  <si>
-    <t>Sirisha D 3</t>
-  </si>
-  <si>
-    <t>anusha V 4</t>
-  </si>
-  <si>
-    <t>Ritesh K 5</t>
-  </si>
-  <si>
-    <t>Mahender O 6</t>
-  </si>
-  <si>
-    <t>Arvind Rawat L 7</t>
-  </si>
-  <si>
-    <t>Sravani U 8</t>
-  </si>
-  <si>
     <t>Syed Farhan N 9</t>
-  </si>
-  <si>
-    <t>FullName</t>
   </si>
 </sst>
 </file>
@@ -193,10 +193,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,13 +461,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,133 +482,133 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
